--- a/produtos_verificados.xlsx
+++ b/produtos_verificados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hub Usb 2.0 3 Portas + Leitor De Cartao Memoria SD Total 7portas</t>
+          <t>Fone de ouvido sem fio TWS Philips TAT1209BK/00 na cor preto, com bluetooth, microfone, tecnologia IPX4 e 18 horas de reprodução.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(64, 'OK')</t>
+          <t>(129, 'OK')</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hubs USB</t>
+          <t>Fones de Ouvido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Portas-Leitor-Cartao-Memoria-7portas/dp/B0DGGW72LL/ref=sr_1_1?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-1&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/TAT1209BK-00-bluetooth-tecnologia-reprodu%C3%A7%C3%A3o/dp/B0CS3RHBZQ/ref=sr_1_1?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.0, Ótima</t>
+          <t>4.6, Ótima</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6</v>
+        <v>100</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(nan, "ERRO - 'float' object has no attribute 'lower'")</t>
+          <t>('752x990', 'Ruim')</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -559,39 +559,39 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Adicionar mais 2 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
+          <t>Nintendo, Console + Jogo, Switch OLED Branco, Jogo Digital Mario Kart 8 Deluxe, 3 Meses de Assinatura Nintendo Switch Online</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(50, 'OK')</t>
+          <t>(124, 'OK')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shorts e Bermudas</t>
+          <t>Consoles</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Bermuda-Masculina-T%C3%A9rmica-Compress%C3%A3o-I-Max/dp/B0DGQTCMC5/ref=sr_1_2?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Bundle-Nintendo-Switch-Assinatura-Online/dp/B0D9WTRLTB/ref=sr_1_2?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -601,25 +601,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>279</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>('828x1013', 'Media')</t>
+          <t>('1041x1346', 'Media')</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -629,67 +627,65 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+          <t>Processador AMD Ryzen 7 9800X3D (AM5/ 8 Cores/ 16 Threads/ 5.2 GHz/ 104Mb Cache/Radeon Graphics/Sem cooler)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(68, 'OK')</t>
+          <t>(107, 'OK')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Capas, Bolsas e Estojos</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Defender-Preta-Galaxy-Otterbox/dp/B07QYV9KGQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-3&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-9800X3D-Graphics/dp/B0DKFMSMYK/ref=sr_1_3?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1137</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>('498x1148', 'Media')</t>
+          <t>('1331x1500', 'OK')</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>Adicionar mais 3 imagens</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,67 +695,65 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kit 2 Cuecas Boxer Mash Preto/Preto Listrado</t>
+          <t>Caixa de Som Boombox Plus AIWA BBS-01-B 200W Bluetooth 30H IP66 USB Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(44, 'OK')</t>
+          <t>(73, 'OK')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cuecas Samba-Canção</t>
+          <t>Caixas de Som Portáteis Bluetooth</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cuecas-Boxer-Mash-Preto-Listrado/dp/B0DGXZJ3TZ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Caixa-Boombox-BBS-01-B-Bluetooth-Preto/dp/B0D7W6Q7L9/ref=sr_1_4?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>122</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>('833x1137', 'Media')</t>
+          <t>('1500x870', 'Media')</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -769,7 +763,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -779,57 +773,55 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
+          <t>JBL, Par de Microfone Sem Fio, JBL PartyBox Wireless Mic - Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(65, 'OK')</t>
+          <t>(64, 'OK')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cabos DisplayPort</t>
+          <t>Dinâmico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cabo-Displayport-Blindado-Macho-preto/dp/B0DKPHT6SJ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-5&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/JBL-Par-Microfone-PartyBox-Wireless/dp/B0CY5PBPJD/ref=sr_1_5?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>691</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>('1200x1091', 'Media')</t>
+          <t>('1264x1376', 'OK')</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -839,39 +831,39 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Adicionar mais 2 tópico(s)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
+          <t>Controle sem fio DualSense Edge™</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(52, 'OK')</t>
+          <t>(32, 'OK')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Conjuntos</t>
+          <t>Controles</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Biqu%C3%ADni-Avia%C3%A7%C3%A3o-Estampado-Conforto-Estilo/dp/B0DKQY7HWC/ref=sr_1_6?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Controle-sem-fio-DualSense-EdgeTM/dp/B0BMB8R1K6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,25 +873,23 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1440</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>('797x1034', 'Media')</t>
+          <t>('892x648', 'Ruim')</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Adicionar mais 3 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -909,67 +899,65 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>Adicionar mais 3 tópico(s)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
+          <t>Kit de Garrafas de Tinta Original Epson EcoTank T544 - Magenta, Amarelo, Ciano, Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(50, 'OK')</t>
+          <t>(85, 'OK')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carregadores de Parede</t>
+          <t>Recarga e Kits de Tinta para Jato de Tinta</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Viagem-USB-Preto-Cabo/dp/B0DKPHB587/ref=sr_1_7?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-7&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Garrafas-Tinta-Original-Epson-EcoTank/dp/B09JKXGSLG/ref=sr_1_7?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3870</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>('595x1185', 'Media')</t>
+          <t>('1319x1500', 'OK')</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>Adicionar mais 4 imagens</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -979,67 +967,65 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Adicionar mais 2 tópico(s)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
+          <t>Epson EcoTank L3250 - Multifuncional, Tanque de Tinta Colorida, Wi-Fi Direct, USB, Bivolt, Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(67, 'OK')</t>
+          <t>(96, 'OK')</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shorts e Bermudas</t>
+          <t>Impressoras de tanque de tinta</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Shorts-Stillage-Confort%C3%A1vel-Barras-Dobradas/dp/B0DGXZDBPY/ref=sr_1_8?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Multifuncional-Epson-EcoTank-L3250-Colorida/dp/B098YHFT9S/ref=sr_1_8?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>23565</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>('1116x811', 'Media')</t>
+          <t>('876x517', 'Ruim')</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>Adicionar mais 2 imagens</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1049,7 +1035,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1059,57 +1045,55 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
+          <t>AMD Ryzen 5 5600GT 6-Core, 24-Thread Processador Desktop</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(50, 'OK')</t>
+          <t>(56, 'OK')</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Luzes de Selfie</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Ring-Light-Polegadas-Tripe-Preto/dp/B0DKPV57Z8/ref=sr_1_9?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5600GT-Threads/dp/B0CQ4DTJYX/ref=sr_1_9?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>929</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>('1200x1133', 'OK')</t>
+          <t>('1402x1495', 'OK')</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1119,7 +1103,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1129,55 +1113,55 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
+          <t>MSI Placa-mãe B650M GAMING WIFI, mATX - Suporta processadores AMD Ryzen série 7000, AM5 - DDR5 Memory Boost 7800+ MHz/OC, PCIe 4.0 x16, M.2 Gen4, Wi-Fi 6E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(94, 'OK')</t>
+          <t>(154, 'OK')</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Placas-Mãe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Kicktok-Samsung-Celular-Transparente/dp/B0777RX2H3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-10&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/MSI-Placa-m%C3%A3e-B650M-GAMING-WIFI/dp/B0CRKR3HXN/ref=sr_1_10?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13146</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.8, Ruim</t>
+          <t>4.2, Boa</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>34.6</v>
+        <v>63.6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>('681x1443', 'Media')</t>
+          <t>(nan, "ERRO - 'float' object has no attribute 'lower'")</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Adicionar mais 2 imagens</t>
+          <t>Adicionar mais 1 imagens</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1187,65 +1171,65 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
+          <t>Headphone Philips bluetooth on-ear com microfone e energia para 15 horas na cor preto TAH1108BK/55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(80, 'OK')</t>
+          <t>(98, 'OK')</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Fones de Ouvido</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Motorola-Celular-Transparente/dp/B075DZL4X6/ref=sr_1_11?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-11&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Headphone-bluetooth-microfone-TAH1108BK-55/dp/B0CCB1DDLF/ref=sr_1_11?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.3, Boa</t>
+          <t>4.7, Ótima</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>14517</v>
       </c>
       <c r="H12" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>('790x812', 'Ruim')</t>
+          <t>('1500x837', 'Media')</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1255,65 +1239,65 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Película Protetora de Vidro Moto E5, Motorola, Transparente</t>
+          <t>Aparador de Pelos Super Groom 10, Mondial, Preto/Azul, 6W, Bivolt - BG-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(59, 'OK')</t>
+          <t>(73, 'OK')</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Protetores de Tela</t>
+          <t>Aparadores de Pelo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Transparente-Motorola-Celular/dp/B07F6LKG2V/ref=sr_1_12?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-12&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Aparador-Bivolt-Mondial-BG-03-Pequeno/dp/B07DP2S4PC/ref=sr_1_12?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.4, Ruim</t>
+          <t>4.7, Ótima</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>39149</v>
       </c>
       <c r="H13" t="n">
-        <v>39.2</v>
+        <v>100</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>('724x1500', 'Media')</t>
+          <t>('1350x1500', 'OK')</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1323,65 +1307,65 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
+          <t>Headset Sem Fio Logitech G Astro A30 LIGHTSPEED com Conexão Bluetooth ou 3,5 mm, Microfone Destacável, Até 27h de Bateria, para Áudio 3D/Dolby Atmos, Xbox, Nintendo Switch, PC, Android - Branco</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(115, 'OK')</t>
+          <t>(193, 'OK')</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Fones para Jogos</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Transparente-Motorola-Prote%C3%A7%C3%A3o-Completa/dp/B07F7JXDVY/ref=sr_1_13?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-13&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Astro-A30-LIGHTSPEED-Bluetooth-Destac%C3%A1vel/dp/B0BN6WP6YW/ref=sr_1_13?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7524</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.2, Ruim</t>
+          <t>4.3, Boa</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H14" t="n">
-        <v>45.4</v>
+        <v>81.2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>('697x1433', 'Media')</t>
+          <t>('1298x1500', 'OK')</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Adicionar mais 5 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1391,65 +1375,65 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
+          <t>PROCESSADOR AMD RYZEN 5 5500 3.6GHz (TURBO 4.2GHz) 16MB CACHE AM4 100-100000457BOX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(87, 'OK')</t>
+          <t>(82, 'OK')</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Cristal-Transparente-Motorola-4882-0/dp/B07NDB5ZD9/ref=sr_1_14?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5500-100100000457BOX/dp/B09VCJ171S/ref=sr_1_14?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22483</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.0, Ótima</t>
+          <t>4.7, Ótima</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>6284</v>
       </c>
       <c r="H15" t="n">
-        <v>41.8</v>
+        <v>100</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>('638x1500', 'Media')</t>
+          <t>('864x926', 'Ruim')</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1459,7 +1443,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1469,52 +1453,50 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
+          <t>Notebook Acer Aspire 5 A515-45-R0XR AMD Ryzen 7 5700U Tela 15.6" RAM 8 GB 256 GB SSD Linux Prata</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(43, 'OK')</t>
+          <t>(96, 'OK')</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kits para Bar</t>
+          <t>Laptops Tradicionais</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/CONJ-PARA-PRANA-Prana-000BS04008XXXNMS/dp/B07C1PYNZY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Notebook-Aspire-A515-45-R0XR-Ryzen-5700U/dp/B0DSWK7DN1/ref=sr_1_15?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>4.2, Boa</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>('611x893', 'Ruim')</t>
+          <t>('917x661', 'Ruim')</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1529,65 +1511,65 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Adicionar mais 1 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
+          <t>ZOTAC GAMING GEFORCE RTX 3060 12GB GDDR6 ZT-A30600P-10M</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(62, 'OK')</t>
+          <t>(55, 'OK')</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carregadores Veiculares</t>
+          <t>Placas de Vídeo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Veicular-Original-Energizer-Sa%C3%ADdas/dp/B0182JTL9G/ref=sr_1_16?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-16&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/ZOTAC-GAMING-GEFORCE-GDDR6-ZT-A30600P-10M/dp/B0CZXYG7RC/ref=sr_1_16?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.5, Ótima</t>
+          <t>5.0, Ótima</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>43.2</v>
+        <v>41.2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>('1160x1248', 'OK')</t>
+          <t>('1246x860', 'Media')</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Adicionar mais 4 imagens</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1597,85 +1579,2539 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Adicionar mais 2 tópico(s)</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moldura Dobravel Plastica Crismop Inox</t>
+          <t>KG251Q P3biip 24.5H FHD 180HZ Gamer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(38, 'OK')</t>
+          <t>(35, 'OK')</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Porta-Retratos de Mesa e Parede</t>
+          <t>Monitores</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Moldura-Dobravel-Plastica-Crismop-Inox/dp/B07GFW29QF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nJUGtznzO1_mp8QWZsUFXw.HAGC4Jy5KfIrmQLSJRa2tFfbjVfXS14L05fwjak5YJg&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744892216&amp;s=merchant-items&amp;sr=1-17&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/KG251Q-P3biip-24-5H-180HZ-Gamer/dp/B0BK9DXLJ2/ref=sr_1_17?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>('679x716', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PC Gamer ITX Arena, Ryzen 5 5500, NVídia GeForce RTX 4060, 16GB RAM, SSD 500GB, Gabinete RGB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(92, 'OK')</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gamer-ITX-NV%C3%ADdia-GeForce-Gabinete/dp/B0D7QMTVHF/ref=sr_1_18?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.4, Boa</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(nan, "ERRO - 'float' object has no attribute 'lower'")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Adicionar mais 3 imagens</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Adicionar mais 3 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B650M Gaming WiFi, Chipset B650, AMD AM5, mATX, DDR5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(71, 'OK')</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-B650M-Gaming-Chipset/dp/B0D5NM5184/ref=sr_1_19?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.3, Boa</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>38</v>
+      </c>
+      <c r="H20" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>('1218x748', 'Media')</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B550M AORUS Elite, Chipset B550, AMD AM4, mATX, DDR4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(71, 'OK')</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-GIGABYTE-B550M-AORUS-ELITE/dp/B08BN8VD23/ref=sr_1_20?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3616</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>('1500x1000', 'Media')</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 5 8500G 3.5GHZ (MAX TURBO 5.0GHZ) 22MB CACHE AM5 100-100000931BOX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(87, 'OK')</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen5-8500G-100100000931BOX/dp/B0CQ4JV8D5/ref=sr_1_21?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>467</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>('1391x1500', 'OK')</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Microondas R1 BRANCO PORTA PRETA 20L MRAS21/MRAS22 (127)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(56, 'OK')</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fornos de Micro-Ondas</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Microondas-BRANCO-PORTA-MRAS21-MRAS22/dp/B09329F4J6/ref=sr_1_22?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>9694</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>('976x538', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 7 5700G 3.8GHz (MAX TURBO 4.6GHz) 16MB CACHE AM4 100-100000263BOX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(87, 'OK')</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5700G-Stealth/dp/B091J3NYVF/ref=sr_1_23?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8277</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>('829x888', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Headset Gamer Sem Fio Logitech G435 LIGHTSPEED, Conexão USB e Bluetooth, Design Leve e Confortável, Microfone Embutido, Bateria de até 18h - Compatível com Dolby Atmos, PC, PS4, PS5, Mobile – Preto</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(197, 'OK')</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fones de Ouvido para Computador</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Headset-est%C3%A9reo-conex%C3%A3o-Bluetooth-Logitech/dp/B08R8DT7X6/ref=sr_1_24?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>14111</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>('1356x1500', 'OK')</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel Core i5-13400F 2.5GHz (4.6 Turbo) 10 Core LGA 1700 Processador para Desktop (Raptor Lake)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(95, 'OK')</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Intel-i5-13400F-2-5GHz-Processador-Desktop/dp/B0BN61LYFB/ref=sr_1_25?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-25&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>699</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>('722x775', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Adicionar mais 3 imagens</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kingston KF552C40BB-16 - Módulo de memória de 16GB DDR5 5200Mhz FURY Beast Black 1,25V 1Rx8 288 pinos para desktop/gamers</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(121, 'OK')</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Memória</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Kingston-KF552C40BB-16-mem%C3%B3ria-5200Mhz-desktop/dp/B09KCM59ZK/ref=sr_1_26?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-26&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>206</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>('1500x814', 'Media')</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SSD M.2 2280 512GB PCIe Gen 3x4 NVMe Hikvision - HKM512P81A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(59, 'OK')</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Unidades Internas SSD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/2280-512GB-PCIe-NVMe-Hikvision/dp/B0DK7M5SJ9/ref=sr_1_27?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-27&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>5.0, Ótima</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H28" t="n">
         <v>41.2</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>('410x362', 'Ruim')</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>('235x844', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Adicionar mais 3 imagens</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GAINWARD Placa gráfica RTX 5070Ti Phoenix 16GB GDDR7 256bit 3-DP HDMI NE7507T019T2-GB2031X VD9016</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(97, 'OK')</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GAINWARD-gr%C3%A1fica-5070Ti-Phoenix-NE7507T019T2-GB2031X/dp/B0DYBQLVXK/ref=sr_1_28?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-28&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>('1500x993', 'Media')</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZOTAC Placa gráfica para jogos GeForce RTX 5080 Solid OC DLSS 4 16GB GDDR7 256-bit 30 Gbps PCIE 5.0 Gaming, IceStorm 3.0 Advanced Cooling, Spectra 2.0 ARGB Lighting, ZT-B50800J-10P</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(180, 'OK')</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-IceStorm-Advanced-Lighting-ZT-B50800J-10P/dp/B0DTZ48TCY/ref=sr_1_29?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-29&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>41</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>('1500x1002', 'Media')</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Placa Mãe MSI PRO H610M-G (LGA1700 /2xDDR4/HDMI/VGA/DP/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(67, 'OK')</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-PRO-H610M-G-LGA1700-2xDDR4/dp/B09P45FMWW/ref=sr_1_30?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-30&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>259</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>('1500x887', 'Media')</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PC Gamer ITX Arena, Ryzen 5 5600G, Radeon™ Graphics Vega 7, 16GB Ram, SSD 480GB, Gabinete RGB</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(93, 'OK')</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gamer-ITX-RadeonTM-Graphics-Gabinete/dp/B0B1ZLNWGD/ref=sr_1_31?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-31&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.4, Boa</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>695</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>('665x821', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Adicionar mais 3 imagens</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Memória Patriot Viper Elite II 8GB 3200MHz Vermelho - PVE248G320C8.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(67, 'OK')</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Memória</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/M%C3%B3dulo-mem%C3%B3ria-%C3%BAnico-Patriot-Viper/dp/B0957WWDS1/ref=sr_1_32?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-32&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1038</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>('1124x334', 'Media')</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SSD ALLTEK 512GB SATA III</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(25, 'OK')</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Unidades Internas SSD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/SSD-ALLTEK-512GB-SATA-III/dp/B0D4YCWVX6/ref=sr_1_33?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-33&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.0, Ótima</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>43</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>('902x640', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Adicionar mais 2 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Processador Intel Core i5-12400 2.5 GHz (Turbo 4.4 GHZ) Cache 18MB 6 Núcleos 12 Threads 12ª GER LGA 1700 BX8071512400 - Intel</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(125, 'OK')</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-Intel-i5-12400-N%C3%BAcleos-BX8071512400/dp/B09MDH6B1P/ref=sr_1_34?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-34&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.8, Ótima</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>843</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>('854x918', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Adicionar mais 2 imagens</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 7 5700 3.7GHz (MAX TURBO 4.6GHz) 16MB CACHE AM4 100-100000743BOX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(86, 'OK')</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5700-Threads/dp/B0CQ4HPJYV/ref=sr_1_35?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-35&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>401</v>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>('1500x1189', 'OK')</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>Adicionar mais 5 imagens</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Adicionar um video</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fonte Cougar Atlas 750W 80 Plus Bronze PFC Ativo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(48, 'OK')</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fontes de Alimentação</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Fonte-Cougar-Atlas-Bronze-Ativo/dp/B0BZT4VXL4/ref=sr_1_36?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-36&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.3, Boa</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>19</v>
+      </c>
+      <c r="H37" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>('1097x868', 'Media')</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte A620M H, DDR5, mATX, AM5, M.2 NVME, Displayport/HDMI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(71, 'OK')</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-A620M-DDR5-Displayport/dp/B0C9R3VLW4/ref=sr_1_37?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-37&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.3, Ruim</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>('982x624', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Placa Mãe MSI PRO Z790-A MAX WIFI7 (LGA 1700/4xDDR5/HDMI/DisplayPort/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(81, 'OK')</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-MSI-Z790-4xDDR5-DisplayPort/dp/B0CJYBQH2G/ref=sr_1_38?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-38&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.3, Boa</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>90</v>
+      </c>
+      <c r="H39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>('1500x1118', 'OK')</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte Aorus 15 XE4-73BR514SH (Core i7/12700H/16GB DDR4/ 1TB SSD/Win 11 Home/Tela 15,6 Full HD)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(112, 'OK')</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gamer-Gigabyte-XE4-73BR514SH-12700H/dp/B0D6RX963W/ref=sr_1_39?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-39&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>(nan, "ERRO - 'float' object has no attribute 'lower'")</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Processador Intel i7-14700KF LGA1700 BX8071514700KF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(51, 'OK')</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-Intel-14700KF-Threads-5-6GHz/dp/B0C948QQWF/ref=sr_1_40?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-40&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>400</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>('736x720', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Adicionar mais 5 imagens</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PLACA MAE Z790 AORUS ELITE AX DDR5 CHIPSET INTEL Z790 LGA 1700 13ª E 12ª GERACAO - Z790 AUROS ELITE AX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(102, 'OK')</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-Z790-AX-LGA1700/dp/B0BH28M64J/ref=sr_1_41?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-41&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.4, Boa</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>433</v>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>('974x675', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cougar Mouse para jogos Minos XC 4000 DPI com sensor óptico com luz de fundo LED inclui velocidade XC MM mouse pad</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(114, 'OK')</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mouses</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Combo-Gamer-Mouse-XC-Mousepad/dp/B07Z2446K9/ref=sr_1_42?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-42&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.7, Ótima</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>26</v>
+      </c>
+      <c r="H43" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>('1129x715', 'Media')</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Processador Intel Core I5-13400, 4.6GHz, LGA 1700, BX8071513400 *</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(65, 'OK')</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Intel-i5-13400-2-5GHz-Processador-Desktop/dp/B0BN68JXR2/ref=sr_1_43?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-43&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.6, Ótima</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>144</v>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>('644x733', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Adicionar mais 2 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo PNY RTX 4060 Verto 2x, 8GB, DDR6 - VCG40608DFXPB1-O Dual Fan DLSS 3 (128 bits, PCIe 4.0, GDDR6, HDMI/DisplayPort, suporta 4K, 2 compartimentos)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(158, 'OK')</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-Placa-gr%C3%A1fica-GeForce-RTXTM/dp/B0C8Y619R1/ref=sr_1_44?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-44&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>283</v>
+      </c>
+      <c r="H45" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>('906x794', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Adicionar mais 2 imagens</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mouse Cougar Optical Minos X2 / ADNS3050 / 3000 dpi - PN # 3MMX2WOB.0001</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(72, 'OK')</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mouses</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mouse-Cougar-Optical-Minos-ADNS3050/dp/B073R559TB/ref=sr_1_45?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-45&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.3, Boa</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>26</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>('1500x1257', 'OK')</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Adicionar mais 1 tópico(s)</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>17/04/2025</t>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COUGAR Gabinete Gamer Duoface RGB, Vidro Temperado, E-ATX, 3x Fans ARGB, Branco, 385ZD10.0003</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(93, 'OK')</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gabinetes de Computador</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/COUGAR-Gabinete-Duoface-Temperado-385ZD10-0003/dp/B0CBSMTG6N/ref=sr_1_46?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-46&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.0, Ótima</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>11</v>
+      </c>
+      <c r="H47" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>('692x1164', 'Media')</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Adicionar mais 2 imagens</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B760 Aorus Master, Ddr4, Atx, Lga1700</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(56, 'OK')</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-B760-Master-Lga1700/dp/B0BPMH6ZV5/ref=sr_1_47?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-47&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.1, Média</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>('948x619', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Placa Mãe Asus PRIME B650M-A II (AM5/4xDDR5/HDMI/DisplayPort/VGA/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(77, 'OK')</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-PRIME-B650M-4xDDR5-DisplayPort/dp/B0BSVDH6MH/ref=sr_1_48?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-48&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.1, Média</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>18</v>
+      </c>
+      <c r="H49" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>('1500x937', 'Media')</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MSI Placa mãe para jogos MPG B650 Edge WiFi (processadores AMD Ryzen 9000/8000/7000, AM5, ATX, DDR5, PCIe 4.0, M.2, SATA 6Gb/s, USB 3.2 Gen 2, HDMI/DP, Wi-Fi 6E, Bluetooth 5.3, ATX)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(181, 'OK')</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-B650-Gaming-processadores-desktop/dp/B0BHCD117G/ref=sr_1_49?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-49&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.2, Boa</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>172</v>
+      </c>
+      <c r="H50" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>('1200x880', 'Media')</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MSI Placa-mãe para jogos MAG B760 Tomahawk WiFi (suporta processadores Intel de 12ª/13ª geração, LGA 1700, DDR5, PCIe 5.0, M.2, LAN de 2,5 Gbps, USB 3.2 Gen2, Wi-Fi 6E, ATX)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(173, 'OK')</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-Placa-m%C3%A3e-Tomahawk-suporta-processadores/dp/B0BRQV1P6M/ref=sr_1_50?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-50&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.5, Ótima</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>239</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>('1500x1001', 'Media')</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Notebook Gigabyte G5 ME (Core i5 / 12500H / RTX 3050Ti 4GB/ 16G DDR4 / 512GB SSD/Tela 15.6 FHD 144Hz/ Win 11) Preto</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(115, 'OK')</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gigabyte-G5-Intel-GeForce/dp/B0C7LMYMCH/ref=sr_1_51?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-51&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.0, Média</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>('840x609', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte G5 (Core i5/ 12500H/ 16GB DDR4/ 512GB SSD/VGA RTX 4060/ Win 11 Home/Tela 15.6 FHD) Preto</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(112, 'OK')</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gamer-Gigabyte-12500H-512GB/dp/B0CWPPFWKP/ref=sr_1_52?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-52&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>('1332x877', 'Media')</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Adicionar mais 4 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GIGABYTE Notebook Gamer G5 Kd, Intel I5-11400h, 15.6, Fhd, 16gb Ddr4, Ssd 512gb M.2, Rtx 3060 6gb, G5 Kd-52br123sd, Preto</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(121, 'OK')</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-Notebook-Gamer-I5-11400h-Kd-52br123sd/dp/B09W41TSBK/ref=sr_1_53?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-53&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.0, Média</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>('900x593', 'Ruim')</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 imagens</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Adicionar um video</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Adicionar mais 1 tópico(s)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
